--- a/工作流/PrlDZ_ISF_ISCF_ISTF设计.xlsx
+++ b/工作流/PrlDZ_ISF_ISCF_ISTF设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="31296" yWindow="0" windowWidth="20016" windowHeight="10956" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,15 @@
     <sheet name="ISTF数据结构" sheetId="13" r:id="rId4"/>
     <sheet name="ISF图例" sheetId="4" r:id="rId5"/>
     <sheet name="ISTF图例" sheetId="11" r:id="rId6"/>
-    <sheet name="ISF视图" sheetId="14" r:id="rId7"/>
-    <sheet name="ISF流转说明" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
+    <sheet name="ISF流转说明" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="655">
   <si>
     <t>标题信息</t>
   </si>
@@ -6784,703 +6783,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>create or replace view v_prl_isf as</t>
-  </si>
-  <si>
-    <t>select i.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFlowType,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFCreateDate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFStatText,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFDepeCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFStat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from (select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(f.FlowType, '10', 'ISF', '20', 'ISCF', 'MAll') ISFFlowType,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.createdate ISFcreatedate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(f.stat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '0',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未开始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '1',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '10',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已提交，审批中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '12',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '13',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已否决</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '30',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '40',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已终止合同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '100',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发起人结束流程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISFStatText,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.stat ISFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               substr(f.FILLUSRDEPTCODE, 0, 4) ISFDepeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_isf f, wf_flow wf, wf_model wm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         where f.entgid = wf.entgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowgid = wf.flowgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.Entgid = wm.EntGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.ModelGid = wm.ModelGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.stat = 3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat in ('30', '40', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowtype in (10, 20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_isf f, wf_model wm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         where f.Entgid = wm.EntGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.ModelGid = wm.ModelGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowtype = 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.stat in ('30', '40')) i,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       (select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISCFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISCFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISCFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISCFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISCFfillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISCFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(wf.stat,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '2',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '3',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '4',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已停止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '5',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已作废</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '6',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已超时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>') ISCFFStat,</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.oldflowgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.stat &lt; 4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat not in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>', '100')) c,</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISTFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISTFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISTFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISTFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISTFfillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISTFStat,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已超时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>') ISTFFStat,</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_istf f, wf_flow wf, wf_model wm</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat not in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>', '100')) t</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> where i.entgid = c.entgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.ISFFlowGid = c.oldflowgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.entgid = t.entgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.ISFFlowGid = t.oldflowgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> order by i.ISFcreatedate desc;</t>
-  </si>
-  <si>
-    <t>ISF视图</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>P11:</t>
     </r>
@@ -7887,30 +7189,6 @@
   <si>
     <t>作废原因</t>
     <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.lesseegid ISFlesseegid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.lessee ISFlessee,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.TradingGid ISFTradingGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.tradingname ISFtradingname,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.lesseegid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.lessee,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.TradingGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.tradingname,</t>
   </si>
   <si>
     <t>SecurityStand</t>
@@ -9458,22 +8736,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9507,7 +8785,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:colOff>670560</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -9566,7 +8844,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9943,23 +9221,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="2" width="13.875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="37" customWidth="1"/>
     <col min="3" max="3" width="53" style="38" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="37" customWidth="1"/>
     <col min="5" max="5" width="9" style="37"/>
-    <col min="6" max="6" width="12.25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="39" customWidth="1"/>
     <col min="7" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
@@ -9967,7 +9245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
@@ -9975,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>5</v>
       </c>
@@ -9983,7 +9261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
@@ -9991,7 +9269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
@@ -9999,7 +9277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>11</v>
       </c>
@@ -10008,7 +9286,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="45"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>12</v>
       </c>
@@ -10025,7 +9303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="47">
         <v>0.1</v>
       </c>
@@ -10040,7 +9318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="47">
         <v>0.2</v>
       </c>
@@ -10049,7 +9327,7 @@
       <c r="E13" s="50"/>
       <c r="F13" s="51"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="47">
         <v>0.3</v>
       </c>
@@ -10058,7 +9336,7 @@
       <c r="E14" s="50"/>
       <c r="F14" s="51"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="47">
         <v>0.4</v>
       </c>
@@ -10067,13 +9345,13 @@
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="44"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>20</v>
       </c>
@@ -10081,30 +9359,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="47">
         <v>1</v>
       </c>
       <c r="C19" s="50"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="47">
         <v>2</v>
       </c>
       <c r="C20" s="50"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
         <v>3</v>
       </c>
       <c r="C21" s="50"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>20</v>
       </c>
@@ -10112,7 +9390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="47">
         <v>1</v>
       </c>
@@ -10120,7 +9398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="47">
         <v>2</v>
       </c>
@@ -10128,7 +9406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="47">
         <v>3</v>
       </c>
@@ -10136,7 +9414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="47">
         <v>4</v>
       </c>
@@ -10144,7 +9422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="47">
         <v>5</v>
       </c>
@@ -10152,7 +9430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>6</v>
       </c>
@@ -10160,7 +9438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="47">
         <v>7</v>
       </c>
@@ -10194,22 +9472,22 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="77.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="2" customWidth="1"/>
     <col min="4" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
@@ -10220,7 +9498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -10231,7 +9509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2</v>
       </c>
@@ -10242,7 +9520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>3</v>
       </c>
@@ -10253,7 +9531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>4</v>
       </c>
@@ -10264,7 +9542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>5</v>
       </c>
@@ -10275,7 +9553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>6</v>
       </c>
@@ -10286,7 +9564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>7</v>
       </c>
@@ -10297,7 +9575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>8</v>
       </c>
@@ -10308,7 +9586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>9</v>
       </c>
@@ -10319,7 +9597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>10</v>
       </c>
@@ -10330,7 +9608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>11</v>
       </c>
@@ -10341,7 +9619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>12</v>
       </c>
@@ -10352,7 +9630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>13</v>
       </c>
@@ -10363,7 +9641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>14</v>
       </c>
@@ -10374,7 +9652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>15</v>
       </c>
@@ -10385,7 +9663,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>16</v>
       </c>
@@ -10394,7 +9672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>17</v>
       </c>
@@ -10403,7 +9681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>18</v>
       </c>
@@ -10412,7 +9690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>19</v>
       </c>
@@ -10421,7 +9699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>20</v>
       </c>
@@ -10432,7 +9710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>21</v>
       </c>
@@ -10443,7 +9721,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>22</v>
       </c>
@@ -10454,7 +9732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>23</v>
       </c>
@@ -10465,7 +9743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>24</v>
       </c>
@@ -10476,7 +9754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>25</v>
       </c>
@@ -10487,14 +9765,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>26</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="33"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>27</v>
       </c>
@@ -10505,7 +9783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>28</v>
       </c>
@@ -10516,7 +9794,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>29</v>
       </c>
@@ -10527,7 +9805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>30</v>
       </c>
@@ -10538,7 +9816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>31</v>
       </c>
@@ -10549,7 +9827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>32</v>
       </c>
@@ -10560,7 +9838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>33</v>
       </c>
@@ -10579,7 +9857,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>34</v>
       </c>
@@ -10590,7 +9868,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>35</v>
       </c>
@@ -10601,7 +9879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>36</v>
       </c>
@@ -10610,7 +9888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>37</v>
       </c>
@@ -10619,7 +9897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>38</v>
       </c>
@@ -10628,7 +9906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>39</v>
       </c>
@@ -10654,21 +9932,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="60" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>189</v>
       </c>
@@ -10680,7 +9958,7 @@
       </c>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>191</v>
       </c>
@@ -10690,7 +9968,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="55"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>192</v>
       </c>
@@ -10705,7 +9983,7 @@
       </c>
       <c r="F3" s="58"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>196</v>
       </c>
@@ -10718,7 +9996,7 @@
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>197</v>
       </c>
@@ -10733,7 +10011,7 @@
       </c>
       <c r="F5" s="58"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>199</v>
       </c>
@@ -10748,7 +10026,7 @@
       </c>
       <c r="F6" s="58"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>202</v>
       </c>
@@ -10761,7 +10039,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="58"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>205</v>
       </c>
@@ -10774,7 +10052,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="58"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
         <v>206</v>
       </c>
@@ -10782,7 +10060,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="58"/>
     </row>
-    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
@@ -10799,7 +10077,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="59" t="s">
         <v>206</v>
       </c>
@@ -10807,7 +10085,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>210</v>
       </c>
@@ -10822,7 +10100,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>212</v>
       </c>
@@ -10835,7 +10113,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>214</v>
       </c>
@@ -10848,7 +10126,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>215</v>
       </c>
@@ -10863,7 +10141,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>591</v>
       </c>
@@ -10876,7 +10154,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>555</v>
       </c>
@@ -10891,7 +10169,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="59" t="s">
         <v>206</v>
       </c>
@@ -10899,7 +10177,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -10914,7 +10192,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -10929,7 +10207,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -10944,7 +10222,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>225</v>
       </c>
@@ -10959,7 +10237,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="62" t="s">
         <v>556</v>
@@ -10975,7 +10253,7 @@
       </c>
       <c r="F23" s="64"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="65" t="s">
         <v>568</v>
@@ -10991,7 +10269,7 @@
       </c>
       <c r="F24" s="67"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
       <c r="B25" s="12" t="s">
         <v>558</v>
@@ -11007,7 +10285,7 @@
       </c>
       <c r="F25" s="68"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>557</v>
       </c>
@@ -11022,7 +10300,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="65" t="s">
         <v>233</v>
@@ -11038,7 +10316,7 @@
       </c>
       <c r="F27" s="67"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
       <c r="B28" s="65" t="s">
         <v>235</v>
@@ -11054,7 +10332,7 @@
       </c>
       <c r="F28" s="67"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>559</v>
       </c>
@@ -11069,7 +10347,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>560</v>
       </c>
@@ -11084,7 +10362,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>561</v>
       </c>
@@ -11099,7 +10377,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>562</v>
       </c>
@@ -11114,7 +10392,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>563</v>
       </c>
@@ -11129,7 +10407,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>564</v>
       </c>
@@ -11144,7 +10422,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>565</v>
       </c>
@@ -11159,7 +10437,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>566</v>
       </c>
@@ -11174,7 +10452,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>567</v>
       </c>
@@ -11189,7 +10467,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>569</v>
       </c>
@@ -11204,7 +10482,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>570</v>
       </c>
@@ -11219,7 +10497,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>571</v>
       </c>
@@ -11234,7 +10512,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>250</v>
       </c>
@@ -11249,7 +10527,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>251</v>
       </c>
@@ -11264,7 +10542,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>572</v>
       </c>
@@ -11279,7 +10557,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>573</v>
       </c>
@@ -11294,7 +10572,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>574</v>
       </c>
@@ -11309,7 +10587,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>575</v>
       </c>
@@ -11324,7 +10602,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
@@ -11339,7 +10617,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>259</v>
       </c>
@@ -11354,7 +10632,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>261</v>
       </c>
@@ -11369,7 +10647,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>263</v>
       </c>
@@ -11384,7 +10662,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>265</v>
       </c>
@@ -11399,7 +10677,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>267</v>
       </c>
@@ -11414,7 +10692,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>576</v>
       </c>
@@ -11429,7 +10707,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>270</v>
       </c>
@@ -11444,7 +10722,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>577</v>
       </c>
@@ -11459,7 +10737,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>273</v>
       </c>
@@ -11472,7 +10750,7 @@
       <c r="E56" s="58"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>578</v>
       </c>
@@ -11487,7 +10765,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>275</v>
       </c>
@@ -11500,7 +10778,7 @@
       <c r="E58" s="58"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>276</v>
       </c>
@@ -11515,7 +10793,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>278</v>
       </c>
@@ -11528,7 +10806,7 @@
       <c r="E60" s="58"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>279</v>
       </c>
@@ -11543,9 +10821,9 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>229</v>
@@ -11554,11 +10832,11 @@
         <v>200</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>579</v>
       </c>
@@ -11573,7 +10851,7 @@
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>282</v>
       </c>
@@ -11588,7 +10866,7 @@
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>284</v>
       </c>
@@ -11605,7 +10883,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>287</v>
       </c>
@@ -11620,7 +10898,7 @@
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>289</v>
       </c>
@@ -11637,7 +10915,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>292</v>
       </c>
@@ -11652,7 +10930,7 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>294</v>
       </c>
@@ -11667,7 +10945,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="69"/>
       <c r="B70" s="12" t="s">
         <v>296</v>
@@ -11683,7 +10961,7 @@
       </c>
       <c r="F70" s="71"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="69"/>
       <c r="B71" s="12" t="s">
         <v>298</v>
@@ -11699,10 +10977,10 @@
       </c>
       <c r="F71" s="71"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="69"/>
       <c r="B72" s="12" t="s">
-        <v>733</v>
+        <v>619</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>229</v>
@@ -11711,45 +10989,45 @@
         <v>200</v>
       </c>
       <c r="E72" s="70" t="s">
-        <v>720</v>
+        <v>606</v>
       </c>
       <c r="F72" s="71"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="69"/>
       <c r="B73" s="12" t="s">
-        <v>731</v>
+        <v>617</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>723</v>
+        <v>609</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>200</v>
       </c>
       <c r="E73" s="70" t="s">
-        <v>721</v>
+        <v>607</v>
       </c>
       <c r="F73" s="71"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="B74" s="12" t="s">
-        <v>732</v>
+        <v>618</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>723</v>
+        <v>609</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>200</v>
       </c>
       <c r="E74" s="70" t="s">
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="F74" s="71"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>729</v>
+        <v>615</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>477</v>
@@ -11758,11 +11036,11 @@
         <v>200</v>
       </c>
       <c r="E75" s="58" t="s">
-        <v>730</v>
+        <v>616</v>
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="69"/>
       <c r="B76" s="12" t="s">
         <v>300</v>
@@ -11778,7 +11056,7 @@
       </c>
       <c r="F76" s="71"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="69"/>
       <c r="B77" s="12" t="s">
         <v>302</v>
@@ -11794,7 +11072,7 @@
       </c>
       <c r="F77" s="71"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="69"/>
       <c r="B78" s="12" t="s">
         <v>305</v>
@@ -11810,7 +11088,7 @@
       </c>
       <c r="F78" s="71"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>580</v>
       </c>
@@ -11825,9 +11103,9 @@
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>708</v>
+        <v>602</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>227</v>
@@ -11836,11 +11114,11 @@
         <v>200</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>709</v>
+        <v>603</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>309</v>
       </c>
@@ -11857,7 +11135,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="59" t="s">
         <v>311</v>
       </c>
@@ -11865,7 +11143,7 @@
       <c r="E82" s="58"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>312</v>
       </c>
@@ -11880,7 +11158,7 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>314</v>
       </c>
@@ -11895,7 +11173,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>316</v>
       </c>
@@ -11910,7 +11188,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>318</v>
       </c>
@@ -11925,7 +11203,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>320</v>
       </c>
@@ -11940,7 +11218,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>323</v>
       </c>
@@ -11955,7 +11233,7 @@
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>324</v>
       </c>
@@ -11970,7 +11248,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>326</v>
       </c>
@@ -11985,7 +11263,7 @@
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>328</v>
       </c>
@@ -12000,7 +11278,7 @@
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="72" t="s">
         <v>330</v>
@@ -12010,7 +11288,7 @@
       <c r="E92" s="70"/>
       <c r="F92" s="71"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="73"/>
       <c r="B93" s="73" t="s">
         <v>331</v>
@@ -12028,7 +11306,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="73"/>
       <c r="B94" s="73" t="s">
         <v>335</v>
@@ -12044,7 +11322,7 @@
       </c>
       <c r="F94" s="73"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="75"/>
       <c r="B95" s="75" t="s">
         <v>337</v>
@@ -12060,7 +11338,7 @@
       </c>
       <c r="F95" s="75"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="75"/>
       <c r="B96" s="75" t="s">
         <v>339</v>
@@ -12076,7 +11354,7 @@
       </c>
       <c r="F96" s="75"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="77"/>
       <c r="B97" s="78" t="s">
         <v>341</v>
@@ -12086,7 +11364,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="77"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="79"/>
       <c r="B98" s="79" t="s">
         <v>342</v>
@@ -12104,7 +11382,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="79"/>
       <c r="B99" s="79" t="s">
         <v>345</v>
@@ -12120,7 +11398,7 @@
       </c>
       <c r="F99" s="81"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>347</v>
       </c>
@@ -12128,7 +11406,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="82"/>
       <c r="B101" s="83" t="s">
         <v>348</v>
@@ -12138,7 +11416,7 @@
       <c r="E101" s="85"/>
       <c r="F101" s="82"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>349</v>
       </c>
@@ -12146,7 +11424,7 @@
       <c r="E102" s="12"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>350</v>
       </c>
@@ -12154,12 +11432,12 @@
       <c r="E103" s="12"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D104" s="60"/>
       <c r="E104" s="12"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="62"/>
       <c r="B105" s="62" t="s">
         <v>351</v>
@@ -12173,7 +11451,7 @@
       <c r="E105" s="63"/>
       <c r="F105" s="64"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="62"/>
       <c r="B106" s="62" t="s">
         <v>352</v>
@@ -12189,7 +11467,7 @@
       </c>
       <c r="F106" s="64"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="62"/>
       <c r="B107" s="62" t="s">
         <v>354</v>
@@ -12205,7 +11483,7 @@
       </c>
       <c r="F107" s="64"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="86"/>
       <c r="B108" s="86" t="s">
         <v>356</v>
@@ -12221,7 +11499,7 @@
       </c>
       <c r="F108" s="86"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="86"/>
       <c r="B109" s="86" t="s">
         <v>358</v>
@@ -12237,7 +11515,7 @@
       </c>
       <c r="F109" s="86"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="62"/>
       <c r="B110" s="62" t="s">
         <v>360</v>
@@ -12253,7 +11531,7 @@
       </c>
       <c r="F110" s="64"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="62"/>
       <c r="B111" s="62" t="s">
         <v>362</v>
@@ -12269,7 +11547,7 @@
       </c>
       <c r="F111" s="64"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="86"/>
       <c r="B112" s="86" t="s">
         <v>363</v>
@@ -12285,7 +11563,7 @@
       </c>
       <c r="F112" s="86"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="86"/>
       <c r="B113" s="86" t="s">
         <v>365</v>
@@ -12301,7 +11579,7 @@
       </c>
       <c r="F113" s="86"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="86"/>
       <c r="B114" s="86" t="s">
         <v>367</v>
@@ -12317,7 +11595,7 @@
       </c>
       <c r="F114" s="86"/>
     </row>
-    <row r="115" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
       <c r="B115" s="62" t="s">
         <v>369</v>
@@ -12333,7 +11611,7 @@
       </c>
       <c r="F115" s="64"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="69"/>
       <c r="B116" s="69"/>
       <c r="C116" s="69"/>
@@ -12341,7 +11619,7 @@
       <c r="E116" s="69"/>
       <c r="F116" s="71"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="55" t="s">
         <v>370</v>
       </c>
@@ -12353,7 +11631,7 @@
       </c>
       <c r="F117" s="55"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="55" t="s">
         <v>372</v>
       </c>
@@ -12363,7 +11641,7 @@
       <c r="E118" s="57"/>
       <c r="F118" s="55"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>192</v>
       </c>
@@ -12378,7 +11656,7 @@
       </c>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>196</v>
       </c>
@@ -12391,7 +11669,7 @@
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>197</v>
       </c>
@@ -12406,7 +11684,7 @@
       </c>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>373</v>
       </c>
@@ -12421,7 +11699,7 @@
       </c>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="59" t="s">
         <v>206</v>
       </c>
@@ -12429,7 +11707,7 @@
       <c r="E123" s="12"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>374</v>
       </c>
@@ -12444,7 +11722,7 @@
       </c>
       <c r="F124" s="89"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>377</v>
       </c>
@@ -12458,7 +11736,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>581</v>
       </c>
@@ -12475,7 +11753,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>582</v>
       </c>
@@ -12489,7 +11767,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B128" s="59" t="s">
         <v>206</v>
       </c>
@@ -12497,7 +11775,7 @@
       <c r="E128" s="12"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>583</v>
       </c>
@@ -12512,7 +11790,7 @@
       </c>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>383</v>
       </c>
@@ -12527,7 +11805,7 @@
       </c>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>584</v>
       </c>
@@ -12542,7 +11820,7 @@
       </c>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>585</v>
       </c>
@@ -12557,7 +11835,7 @@
       </c>
       <c r="F132" s="90"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>386</v>
       </c>
@@ -12572,7 +11850,7 @@
       </c>
       <c r="F133" s="90"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>586</v>
       </c>
@@ -12587,7 +11865,7 @@
       </c>
       <c r="F134" s="90"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
         <v>587</v>
       </c>
@@ -12604,7 +11882,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>390</v>
       </c>
@@ -12621,7 +11899,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>588</v>
       </c>
@@ -12638,7 +11916,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>589</v>
       </c>
@@ -12653,7 +11931,7 @@
       </c>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>394</v>
       </c>
@@ -12668,7 +11946,7 @@
       </c>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>590</v>
       </c>
@@ -12685,9 +11963,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
-        <v>760</v>
+        <v>646</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>229</v>
@@ -12700,7 +11978,7 @@
       </c>
       <c r="F141" s="90"/>
     </row>
-    <row r="142" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B142" s="59" t="s">
         <v>206</v>
       </c>
@@ -12708,7 +11986,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>398</v>
       </c>
@@ -12723,7 +12001,7 @@
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
         <v>401</v>
       </c>
@@ -12731,7 +12009,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>349</v>
       </c>
@@ -12739,7 +12017,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
       <c r="B146" s="69"/>
       <c r="C146" s="69"/>
@@ -12747,7 +12025,7 @@
       <c r="E146" s="69"/>
       <c r="F146" s="71"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="55" t="s">
         <v>402</v>
       </c>
@@ -12759,7 +12037,7 @@
       </c>
       <c r="F147" s="55"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="55" t="s">
         <v>404</v>
       </c>
@@ -12769,7 +12047,7 @@
       <c r="E148" s="55"/>
       <c r="F148" s="55"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="55"/>
       <c r="B149" s="55" t="s">
         <v>192</v>
@@ -12785,7 +12063,7 @@
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>196</v>
       </c>
@@ -12798,7 +12076,7 @@
       <c r="E150" s="58"/>
       <c r="F150" s="58"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="55"/>
       <c r="B151" s="55" t="s">
         <v>197</v>
@@ -12814,7 +12092,7 @@
       </c>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
         <v>373</v>
       </c>
@@ -12829,7 +12107,7 @@
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
         <v>406</v>
       </c>
@@ -12844,7 +12122,7 @@
       </c>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
         <v>408</v>
       </c>
@@ -12859,7 +12137,7 @@
       </c>
       <c r="F154" s="58"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
         <v>410</v>
       </c>
@@ -12874,7 +12152,7 @@
       </c>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B156" s="68" t="s">
         <v>412</v>
       </c>
@@ -12889,7 +12167,7 @@
       </c>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
         <v>413</v>
       </c>
@@ -12904,7 +12182,7 @@
       </c>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="55"/>
       <c r="B158" s="55" t="s">
         <v>415</v>
@@ -12914,7 +12192,7 @@
       <c r="E158" s="55"/>
       <c r="F158" s="55"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="55"/>
       <c r="B159" s="55" t="s">
         <v>349</v>
@@ -12924,7 +12202,7 @@
       <c r="E159" s="55"/>
       <c r="F159" s="55"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="55" t="s">
         <v>416</v>
       </c>
@@ -12936,7 +12214,7 @@
       </c>
       <c r="F161" s="55"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="55" t="s">
         <v>418</v>
       </c>
@@ -12946,7 +12224,7 @@
       <c r="E162" s="57"/>
       <c r="F162" s="55"/>
     </row>
-    <row r="163" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>192</v>
       </c>
@@ -12961,7 +12239,7 @@
       </c>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
         <v>197</v>
       </c>
@@ -12976,7 +12254,7 @@
       </c>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
         <v>419</v>
       </c>
@@ -12989,7 +12267,7 @@
       <c r="E165" s="58"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B166" s="59" t="s">
         <v>206</v>
       </c>
@@ -12997,7 +12275,7 @@
       <c r="E166" s="12"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="12" t="s">
         <v>420</v>
       </c>
@@ -13014,7 +12292,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B168" s="59" t="s">
         <v>206</v>
       </c>
@@ -13022,7 +12300,7 @@
       <c r="E168" s="12"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>423</v>
       </c>
@@ -13039,7 +12317,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>426</v>
       </c>
@@ -13054,7 +12332,7 @@
       </c>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>428</v>
       </c>
@@ -13067,7 +12345,7 @@
       <c r="E171" s="12"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>429</v>
       </c>
@@ -13080,7 +12358,7 @@
       <c r="E172" s="12"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>430</v>
       </c>
@@ -13093,7 +12371,7 @@
       <c r="E173" s="12"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
         <v>431</v>
       </c>
@@ -13108,7 +12386,7 @@
       </c>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B175" s="59" t="s">
         <v>206</v>
       </c>
@@ -13116,7 +12394,7 @@
       <c r="E175" s="12"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>433</v>
       </c>
@@ -13131,7 +12409,7 @@
       </c>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
         <v>435</v>
       </c>
@@ -13146,7 +12424,7 @@
       </c>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>437</v>
       </c>
@@ -13154,7 +12432,7 @@
       <c r="E178" s="12"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>349</v>
       </c>
@@ -13162,7 +12440,7 @@
       <c r="E179" s="12"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="55" t="s">
         <v>438</v>
       </c>
@@ -13174,9 +12452,9 @@
       </c>
       <c r="F181" s="55"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="55" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
       <c r="B182" s="55"/>
       <c r="C182" s="55"/>
@@ -13184,7 +12462,7 @@
       <c r="E182" s="57"/>
       <c r="F182" s="55"/>
     </row>
-    <row r="183" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B183" s="12" t="s">
         <v>192</v>
       </c>
@@ -13199,7 +12477,7 @@
       </c>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>196</v>
       </c>
@@ -13212,7 +12490,7 @@
       <c r="E184" s="58"/>
       <c r="F184" s="58"/>
     </row>
-    <row r="185" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>197</v>
       </c>
@@ -13227,7 +12505,7 @@
       </c>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>440</v>
       </c>
@@ -13242,7 +12520,7 @@
       </c>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
         <v>206</v>
       </c>
@@ -13250,24 +12528,24 @@
       <c r="E187" s="12"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
-        <v>727</v>
+        <v>613</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>490</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="E188" s="58" t="s">
-        <v>725</v>
+        <v>611</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
         <v>442</v>
       </c>
@@ -13282,7 +12560,7 @@
       </c>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
         <v>445</v>
       </c>
@@ -13297,7 +12575,7 @@
       </c>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B191" s="12" t="s">
         <v>447</v>
       </c>
@@ -13312,7 +12590,7 @@
       </c>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B192" s="12" t="s">
         <v>449</v>
       </c>
@@ -13320,7 +12598,7 @@
       <c r="E192" s="12"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
         <v>349</v>
       </c>
@@ -13328,7 +12606,7 @@
       <c r="E193" s="12"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="55" t="s">
         <v>450</v>
       </c>
@@ -13340,7 +12618,7 @@
       </c>
       <c r="F196" s="55"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="55" t="s">
         <v>452</v>
       </c>
@@ -13350,7 +12628,7 @@
       <c r="E197" s="57"/>
       <c r="F197" s="55"/>
     </row>
-    <row r="198" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B198" s="12" t="s">
         <v>406</v>
       </c>
@@ -13365,7 +12643,7 @@
       </c>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B199" s="12" t="s">
         <v>408</v>
       </c>
@@ -13380,7 +12658,7 @@
       </c>
       <c r="F199" s="58"/>
     </row>
-    <row r="200" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
         <v>410</v>
       </c>
@@ -13395,7 +12673,7 @@
       </c>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B201" s="68" t="s">
         <v>412</v>
       </c>
@@ -13410,7 +12688,7 @@
       </c>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B202" s="12" t="s">
         <v>413</v>
       </c>
@@ -13425,9 +12703,9 @@
       </c>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B203" s="12" t="s">
-        <v>768</v>
+        <v>654</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>454</v>
@@ -13436,11 +12714,11 @@
         <v>194</v>
       </c>
       <c r="E203" s="58" t="s">
-        <v>767</v>
+        <v>653</v>
       </c>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B204" s="59" t="s">
         <v>206</v>
       </c>
@@ -13448,7 +12726,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B205" s="12" t="s">
         <v>455</v>
       </c>
@@ -13462,7 +12740,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B206" s="12" t="s">
         <v>458</v>
       </c>
@@ -13476,7 +12754,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B207" s="59" t="s">
         <v>206</v>
       </c>
@@ -13484,7 +12762,7 @@
       <c r="E207" s="12"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B208" s="12" t="s">
         <v>460</v>
       </c>
@@ -13501,7 +12779,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
         <v>462</v>
       </c>
@@ -13516,7 +12794,7 @@
       </c>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B210" s="12" t="s">
         <v>463</v>
       </c>
@@ -13531,7 +12809,7 @@
       </c>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B211" s="12" t="s">
         <v>465</v>
       </c>
@@ -13546,7 +12824,7 @@
       </c>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B212" s="12" t="s">
         <v>468</v>
       </c>
@@ -13561,7 +12839,7 @@
       </c>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B213" s="12" t="s">
         <v>470</v>
       </c>
@@ -13574,7 +12852,7 @@
       <c r="E213" s="12"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
         <v>471</v>
       </c>
@@ -13587,7 +12865,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B215" s="12" t="s">
         <v>472</v>
       </c>
@@ -13595,7 +12873,7 @@
       <c r="E215" s="12"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B216" s="12" t="s">
         <v>349</v>
       </c>
@@ -13603,12 +12881,12 @@
       <c r="E216" s="12"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D217" s="60"/>
       <c r="E217" s="12"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="55" t="s">
         <v>473</v>
       </c>
@@ -13620,7 +12898,7 @@
       </c>
       <c r="F218" s="55"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="55" t="s">
         <v>475</v>
       </c>
@@ -13630,7 +12908,7 @@
       <c r="E219" s="57"/>
       <c r="F219" s="55"/>
     </row>
-    <row r="220" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B220" s="12" t="s">
         <v>476</v>
       </c>
@@ -13645,7 +12923,7 @@
       </c>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B221" s="12" t="s">
         <v>479</v>
       </c>
@@ -13660,7 +12938,7 @@
       </c>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B222" s="59" t="s">
         <v>206</v>
       </c>
@@ -13668,7 +12946,7 @@
       <c r="E222" s="12"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B223" s="12" t="s">
         <v>481</v>
       </c>
@@ -13683,7 +12961,7 @@
       </c>
       <c r="F223" s="58"/>
     </row>
-    <row r="224" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B224" s="12" t="s">
         <v>482</v>
       </c>
@@ -13696,7 +12974,7 @@
       <c r="E224" s="58"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B225" s="12" t="s">
         <v>463</v>
       </c>
@@ -13711,7 +12989,7 @@
       </c>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B226" s="12" t="s">
         <v>465</v>
       </c>
@@ -13726,7 +13004,7 @@
       </c>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B227" s="12" t="s">
         <v>468</v>
       </c>
@@ -13741,7 +13019,7 @@
       </c>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B228" s="12" t="s">
         <v>470</v>
       </c>
@@ -13754,7 +13032,7 @@
       <c r="E228" s="12"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B229" s="12" t="s">
         <v>471</v>
       </c>
@@ -13767,7 +13045,7 @@
       <c r="E229" s="12"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B230" s="12" t="s">
         <v>483</v>
       </c>
@@ -13782,7 +13060,7 @@
       </c>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B231" s="12" t="s">
         <v>486</v>
       </c>
@@ -13790,7 +13068,7 @@
       <c r="E231" s="12"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B232" s="12" t="s">
         <v>349</v>
       </c>
@@ -13798,12 +13076,12 @@
       <c r="E232" s="12"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D233" s="60"/>
       <c r="E233" s="12"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="55" t="s">
         <v>487</v>
       </c>
@@ -13815,7 +13093,7 @@
       </c>
       <c r="F234" s="55"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="55" t="s">
         <v>488</v>
       </c>
@@ -13825,7 +13103,7 @@
       <c r="E235" s="57"/>
       <c r="F235" s="55"/>
     </row>
-    <row r="236" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B236" s="12" t="s">
         <v>476</v>
       </c>
@@ -13840,7 +13118,7 @@
       </c>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B237" s="12" t="s">
         <v>479</v>
       </c>
@@ -13855,7 +13133,7 @@
       </c>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B238" s="59" t="s">
         <v>206</v>
       </c>
@@ -13863,7 +13141,7 @@
       <c r="E238" s="12"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B239" s="12" t="s">
         <v>489</v>
       </c>
@@ -13875,7 +13153,7 @@
       </c>
       <c r="E239" s="58"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B240" s="12" t="s">
         <v>481</v>
       </c>
@@ -13890,7 +13168,7 @@
       </c>
       <c r="F240" s="58"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B241" s="12" t="s">
         <v>458</v>
       </c>
@@ -13904,7 +13182,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" s="12" t="s">
         <v>408</v>
       </c>
@@ -13919,7 +13197,7 @@
       </c>
       <c r="F242" s="58"/>
     </row>
-    <row r="243" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B243" s="12" t="s">
         <v>410</v>
       </c>
@@ -13934,7 +13212,7 @@
       </c>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B244" s="68" t="s">
         <v>412</v>
       </c>
@@ -13949,7 +13227,7 @@
       </c>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B245" s="12" t="s">
         <v>413</v>
       </c>
@@ -13964,7 +13242,7 @@
       </c>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" s="12" t="s">
         <v>455</v>
       </c>
@@ -13978,7 +13256,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B247" s="12" t="s">
         <v>491</v>
       </c>
@@ -13993,7 +13271,7 @@
       </c>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B248" s="12" t="s">
         <v>493</v>
       </c>
@@ -14001,7 +13279,7 @@
       <c r="E248" s="12"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B249" s="12" t="s">
         <v>349</v>
       </c>
@@ -14009,7 +13287,7 @@
       <c r="E249" s="12"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A250" s="69"/>
       <c r="B250" s="69"/>
       <c r="C250" s="69"/>
@@ -14017,7 +13295,7 @@
       <c r="E250" s="69"/>
       <c r="F250" s="71"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="55" t="s">
         <v>494</v>
       </c>
@@ -14029,7 +13307,7 @@
       </c>
       <c r="F251" s="55"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="55" t="s">
         <v>496</v>
       </c>
@@ -14039,7 +13317,7 @@
       <c r="E252" s="57"/>
       <c r="F252" s="55"/>
     </row>
-    <row r="253" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B253" s="12" t="s">
         <v>497</v>
       </c>
@@ -14054,7 +13332,7 @@
       </c>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B254" s="12" t="s">
         <v>498</v>
       </c>
@@ -14069,7 +13347,7 @@
       </c>
       <c r="F254" s="58"/>
     </row>
-    <row r="255" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B255" s="12" t="s">
         <v>499</v>
       </c>
@@ -14077,7 +13355,7 @@
       <c r="E255" s="12"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B256" s="12" t="s">
         <v>349</v>
       </c>
@@ -14100,17 +13378,17 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="60" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>500</v>
       </c>
@@ -14122,7 +13400,7 @@
       </c>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>502</v>
       </c>
@@ -14132,7 +13410,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="55"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>192</v>
       </c>
@@ -14147,7 +13425,7 @@
       </c>
       <c r="F3" s="58"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>196</v>
       </c>
@@ -14160,7 +13438,7 @@
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>197</v>
       </c>
@@ -14175,7 +13453,7 @@
       </c>
       <c r="F5" s="58"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>199</v>
       </c>
@@ -14190,7 +13468,7 @@
       </c>
       <c r="F6" s="58"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>202</v>
       </c>
@@ -14202,7 +13480,7 @@
       </c>
       <c r="F7" s="58"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>205</v>
       </c>
@@ -14214,13 +13492,13 @@
       </c>
       <c r="F8" s="58"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
         <v>206</v>
       </c>
       <c r="F9" s="58"/>
     </row>
-    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
@@ -14237,12 +13515,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>210</v>
       </c>
@@ -14256,7 +13534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>212</v>
       </c>
@@ -14267,7 +13545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>214</v>
       </c>
@@ -14278,7 +13556,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>215</v>
       </c>
@@ -14292,7 +13570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>504</v>
       </c>
@@ -14303,7 +13581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>216</v>
       </c>
@@ -14317,12 +13595,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>345</v>
       </c>
@@ -14337,7 +13615,7 @@
       </c>
       <c r="F19" s="58"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
       <c r="B20" s="68" t="s">
         <v>506</v>
@@ -14355,7 +13633,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
       <c r="B21" s="68" t="s">
         <v>508</v>
@@ -14371,7 +13649,7 @@
       </c>
       <c r="F21" s="68"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
       <c r="B22" s="68" t="s">
         <v>511</v>
@@ -14387,7 +13665,7 @@
       </c>
       <c r="F22" s="68"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
       <c r="B23" s="68" t="s">
         <v>513</v>
@@ -14401,7 +13679,7 @@
       <c r="E23" s="91"/>
       <c r="F23" s="68"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="68"/>
       <c r="B24" s="68" t="s">
         <v>509</v>
@@ -14417,19 +13695,19 @@
       </c>
       <c r="F24" s="68"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
       <c r="B25" s="59" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="91"/>
       <c r="F25" s="68"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>743</v>
+        <v>629</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>517</v>
@@ -14438,12 +13716,12 @@
         <v>200</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>765</v>
+        <v>651</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>517</v>
@@ -14452,12 +13730,12 @@
         <v>200</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>766</v>
+        <v>652</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>517</v>
@@ -14466,10 +13744,10 @@
         <v>200</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="68"/>
       <c r="B29" s="68" t="s">
         <v>514</v>
@@ -14485,12 +13763,12 @@
       </c>
       <c r="F29" s="68"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>516</v>
       </c>
@@ -14504,7 +13782,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>519</v>
       </c>
@@ -14518,7 +13796,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>521</v>
       </c>
@@ -14532,7 +13810,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>524</v>
       </c>
@@ -14546,7 +13824,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>526</v>
       </c>
@@ -14560,12 +13838,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>528</v>
       </c>
@@ -14576,7 +13854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>529</v>
       </c>
@@ -14587,7 +13865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>530</v>
       </c>
@@ -14598,7 +13876,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>531</v>
       </c>
@@ -14609,7 +13887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>532</v>
       </c>
@@ -14620,7 +13898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>533</v>
       </c>
@@ -14631,7 +13909,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>534</v>
       </c>
@@ -14642,7 +13920,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>535</v>
       </c>
@@ -14653,7 +13931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="59" t="s">
         <v>206</v>
       </c>
@@ -14661,7 +13939,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>398</v>
       </c>
@@ -14676,12 +13954,12 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
       <c r="B48" s="83" t="s">
         <v>537</v>
@@ -14691,19 +13969,19 @@
       <c r="E48" s="85"/>
       <c r="F48" s="82"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
-        <v>745</v>
+        <v>631</v>
       </c>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -14713,9 +13991,9 @@
       </c>
       <c r="F52" s="55"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
-        <v>746</v>
+        <v>632</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -14723,7 +14001,7 @@
       <c r="E53" s="57"/>
       <c r="F53" s="55"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>192</v>
       </c>
@@ -14737,7 +14015,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>196</v>
       </c>
@@ -14750,7 +14028,7 @@
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>197</v>
       </c>
@@ -14764,7 +14042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>373</v>
       </c>
@@ -14778,31 +14056,31 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="59" t="s">
-        <v>748</v>
+        <v>634</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>751</v>
+        <v>637</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>749</v>
+        <v>635</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>542</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>764</v>
+        <v>650</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>200</v>
@@ -14812,37 +14090,37 @@
       </c>
       <c r="F60" s="61"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>754</v>
+        <v>640</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>752</v>
+        <v>638</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>200</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>753</v>
+        <v>639</v>
       </c>
       <c r="F61" s="61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>755</v>
+        <v>641</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>752</v>
+        <v>638</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>200</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>756</v>
+        <v>642</v>
       </c>
       <c r="F62" s="61"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>583</v>
       </c>
@@ -14853,10 +14131,10 @@
         <v>200</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>585</v>
       </c>
@@ -14867,10 +14145,10 @@
         <v>200</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>587</v>
       </c>
@@ -14881,10 +14159,10 @@
         <v>200</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>589</v>
       </c>
@@ -14895,12 +14173,12 @@
         <v>200</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>761</v>
+        <v>647</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>229</v>
@@ -14909,10 +14187,10 @@
         <v>200</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>307</v>
       </c>
@@ -14927,17 +14205,17 @@
       </c>
       <c r="F68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>539</v>
       </c>
@@ -14949,7 +14227,7 @@
       </c>
       <c r="F72" s="55"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>541</v>
       </c>
@@ -14959,7 +14237,7 @@
       <c r="E73" s="57"/>
       <c r="F73" s="55"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>192</v>
       </c>
@@ -14973,7 +14251,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>196</v>
       </c>
@@ -14986,7 +14264,7 @@
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>197</v>
       </c>
@@ -15000,7 +14278,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>373</v>
       </c>
@@ -15014,12 +14292,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="108" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>542</v>
       </c>
@@ -15036,7 +14314,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>545</v>
       </c>
@@ -15051,7 +14329,7 @@
       </c>
       <c r="F80" s="61"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>547</v>
       </c>
@@ -15065,7 +14343,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>548</v>
       </c>
@@ -15079,7 +14357,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>549</v>
       </c>
@@ -15093,7 +14371,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>550</v>
       </c>
@@ -15107,7 +14385,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>551</v>
       </c>
@@ -15121,7 +14399,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>307</v>
       </c>
@@ -15136,12 +14414,12 @@
       </c>
       <c r="F86" s="90"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>349</v>
       </c>
@@ -15161,16 +14439,16 @@
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
@@ -15178,7 +14456,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>103</v>
       </c>
@@ -15192,7 +14470,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>107</v>
       </c>
@@ -15206,7 +14484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
@@ -15218,7 +14496,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>113</v>
       </c>
@@ -15232,7 +14510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>117</v>
       </c>
@@ -15246,7 +14524,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
@@ -15260,7 +14538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>171</v>
       </c>
@@ -15274,7 +14552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>172</v>
       </c>
@@ -15288,7 +14566,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>174</v>
       </c>
@@ -15302,7 +14580,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>175</v>
       </c>
@@ -15316,7 +14594,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>177</v>
       </c>
@@ -15330,7 +14608,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>178</v>
       </c>
@@ -15344,7 +14622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>123</v>
       </c>
@@ -15356,7 +14634,7 @@
       </c>
       <c r="D14" s="22"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>125</v>
       </c>
@@ -15383,7 +14661,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:colOff>670560</xdr:colOff>
                 <xdr:row>91</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -15407,16 +14685,16 @@
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
@@ -15424,7 +14702,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>103</v>
       </c>
@@ -15438,7 +14716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>107</v>
       </c>
@@ -15452,7 +14730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
@@ -15464,7 +14742,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>113</v>
       </c>
@@ -15478,7 +14756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>117</v>
       </c>
@@ -15492,7 +14770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
@@ -15506,7 +14784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>171</v>
       </c>
@@ -15520,7 +14798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>172</v>
       </c>
@@ -15534,7 +14812,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>174</v>
       </c>
@@ -15548,7 +14826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>175</v>
       </c>
@@ -15562,7 +14840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>177</v>
       </c>
@@ -15576,7 +14854,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>178</v>
       </c>
@@ -15590,7 +14868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>123</v>
       </c>
@@ -15602,7 +14880,7 @@
       </c>
       <c r="D14" s="22"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>125</v>
       </c>
@@ -15630,7 +14908,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>87</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15646,1138 +14924,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="9" style="1"/>
+    <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="1.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="101" t="s">
-        <v>734</v>
-      </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="97" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="101"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16797,16 +15015,16 @@
         <v>140</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>736</v>
+        <v>622</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>142</v>
@@ -16835,12 +15053,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>153</v>
@@ -16869,12 +15087,12 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>735</v>
+        <v>621</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>159</v>
@@ -16901,12 +15119,12 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>738</v>
+        <v>624</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -16927,9 +15145,9 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>706</v>
+        <v>600</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -16945,7 +15163,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -16959,7 +15177,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -16973,37 +15191,37 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="97" t="s">
+      <c r="K11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="102" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="7" t="s">
         <v>135</v>
       </c>
@@ -17023,16 +15241,16 @@
         <v>140</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>740</v>
+        <v>626</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>142</v>
@@ -17061,12 +15279,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>739</v>
+        <v>625</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>153</v>
@@ -17094,7 +15312,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
@@ -17126,12 +15344,12 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -17151,9 +15369,9 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>707</v>
+        <v>601</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -17168,27 +15386,27 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="98" t="s">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -17196,11 +15414,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>152</v>
       </c>
@@ -17218,7 +15436,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>170</v>
       </c>
@@ -17235,7 +15453,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>188</v>
       </c>
@@ -17253,9 +15471,9 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>707</v>
+        <v>601</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
@@ -17270,22 +15488,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="A19:A20"/>
@@ -17293,6 +15495,22 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -17301,7 +15519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -17309,72 +15527,72 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="1.625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="101"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
@@ -17394,11 +15612,11 @@
         <v>140</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
@@ -17432,7 +15650,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>170</v>
       </c>
@@ -17466,7 +15684,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -17498,7 +15716,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>168</v>
       </c>
@@ -17524,7 +15742,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -17542,7 +15760,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -17556,7 +15774,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -17570,37 +15788,37 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="97" t="s">
+      <c r="K11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="102" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="7" t="s">
         <v>135</v>
       </c>
@@ -17620,16 +15838,16 @@
         <v>140</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>704</v>
+        <v>598</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>142</v>
@@ -17658,12 +15876,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>705</v>
+        <v>599</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>153</v>
@@ -17691,12 +15909,12 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>703</v>
+        <v>597</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>159</v>
@@ -17723,7 +15941,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
@@ -17748,7 +15966,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
@@ -17765,27 +15983,27 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="98" t="s">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -17793,11 +16011,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>152</v>
       </c>
@@ -17815,7 +16033,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>170</v>
       </c>
@@ -17832,7 +16050,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>188</v>
       </c>
@@ -17850,7 +16068,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
@@ -17865,7 +16083,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -17879,7 +16097,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -17893,7 +16111,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -17907,12 +16125,12 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>699</v>
+        <v>593</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>701</v>
+        <v>595</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -17925,12 +16143,12 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>700</v>
+        <v>594</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>702</v>
+        <v>596</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -17943,9 +16161,9 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>698</v>
+        <v>592</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -17959,7 +16177,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -17973,7 +16191,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -17987,7 +16205,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -18001,7 +16219,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -18017,15 +16235,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -18040,6 +16249,15 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
